--- a/data/trans_orig/P14A17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A17-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91AFBD2F-6526-46FC-AB05-2B9CA585E667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5212B80-AEE8-4D04-B54D-6402D68B0705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{244C8CFC-DB7D-4B00-84D7-55D0009AE031}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2559B213-DB34-4346-A9E1-B0D7EB89165E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="192">
   <si>
     <t>Población que recibe medicación o terapia por anemia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -108,13 +108,13 @@
     <t>83,04%</t>
   </si>
   <si>
-    <t>32,52%</t>
+    <t>31,57%</t>
   </si>
   <si>
     <t>87,14%</t>
   </si>
   <si>
-    <t>37,17%</t>
+    <t>37,36%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -123,13 +123,13 @@
     <t>16,96%</t>
   </si>
   <si>
-    <t>67,48%</t>
+    <t>68,43%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>62,83%</t>
+    <t>62,64%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -138,37 +138,37 @@
     <t>68,23%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -180,16 +180,19 @@
     <t>75,03%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>51,32%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -198,16 +201,19 @@
     <t>24,97%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>48,68%</t>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -225,7 +231,7 @@
     <t>71,68%</t>
   </si>
   <si>
-    <t>28,59%</t>
+    <t>28,75%</t>
   </si>
   <si>
     <t>48,38%</t>
@@ -240,7 +246,7 @@
     <t>28,32%</t>
   </si>
   <si>
-    <t>71,41%</t>
+    <t>71,25%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -249,37 +255,37 @@
     <t>70,64%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -291,13 +297,13 @@
     <t>93,5%</t>
   </si>
   <si>
-    <t>71,07%</t>
+    <t>71,61%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>74,36%</t>
+    <t>74,26%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -306,61 +312,61 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>28,93%</t>
+    <t>28,39%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>25,64%</t>
+    <t>25,74%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>74,08%</t>
+    <t>74,33%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>25,92%</t>
+    <t>25,67%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -381,10 +387,10 @@
     <t>58,75%</t>
   </si>
   <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
   </si>
   <si>
     <t>59,17%</t>
@@ -399,10 +405,10 @@
     <t>41,25%</t>
   </si>
   <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
   </si>
   <si>
     <t>46,19%</t>
@@ -411,7 +417,7 @@
     <t>72,59%</t>
   </si>
   <si>
-    <t>34,02%</t>
+    <t>34,05%</t>
   </si>
   <si>
     <t>53,81%</t>
@@ -420,7 +426,7 @@
     <t>27,41%</t>
   </si>
   <si>
-    <t>65,98%</t>
+    <t>65,95%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -429,7 +435,7 @@
     <t>86,49%</t>
   </si>
   <si>
-    <t>43,57%</t>
+    <t>44,35%</t>
   </si>
   <si>
     <t>87,91%</t>
@@ -444,7 +450,7 @@
     <t>13,51%</t>
   </si>
   <si>
-    <t>56,43%</t>
+    <t>55,65%</t>
   </si>
   <si>
     <t>12,09%</t>
@@ -453,22 +459,22 @@
     <t>50,4%</t>
   </si>
   <si>
-    <t>73,45%</t>
+    <t>66,47%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>21,31%</t>
+    <t>21,63%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -489,7 +495,7 @@
     <t>70,03%</t>
   </si>
   <si>
-    <t>26,19%</t>
+    <t>27,32%</t>
   </si>
   <si>
     <t>49,03%</t>
@@ -498,49 +504,49 @@
     <t>29,97%</t>
   </si>
   <si>
-    <t>73,81%</t>
+    <t>72,68%</t>
   </si>
   <si>
     <t>53,48%</t>
   </si>
   <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>58,73%</t>
   </si>
   <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
   <si>
     <t>46,52%</t>
   </si>
   <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
   </si>
   <si>
     <t>41,27%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>72,42%</t>
+    <t>72,12%</t>
   </si>
   <si>
     <t>91,5%</t>
@@ -552,7 +558,7 @@
     <t>8,91%</t>
   </si>
   <si>
-    <t>27,58%</t>
+    <t>27,88%</t>
   </si>
   <si>
     <t>8,5%</t>
@@ -564,49 +570,49 @@
     <t>91,69%</t>
   </si>
   <si>
-    <t>62,38%</t>
+    <t>66,28%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>37,62%</t>
+    <t>33,72%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF27F89B-BBFE-4671-96D9-E5971C60EDA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726AB5E9-CA93-4C03-A3C6-71272FD423A5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1774,7 +1780,7 @@
         <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,7 +1801,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1804,13 +1810,13 @@
         <v>2987</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1819,13 +1825,13 @@
         <v>2987</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1887,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1893,7 +1899,7 @@
         <v>1023</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
@@ -1908,10 +1914,10 @@
         <v>3908</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -1923,10 +1929,10 @@
         <v>4932</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -1944,7 +1950,7 @@
         <v>959</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
@@ -1959,13 +1965,13 @@
         <v>990</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -1974,13 +1980,13 @@
         <v>1948</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,7 +2042,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2063,13 +2069,13 @@
         <v>14496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -2078,13 +2084,13 @@
         <v>16494</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2120,13 @@
         <v>6023</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -2129,13 +2135,13 @@
         <v>6024</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,7 +2197,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2206,7 +2212,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -2218,10 +2224,10 @@
         <v>16015</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -2233,10 +2239,10 @@
         <v>20280</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -2260,7 +2266,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2269,13 +2275,13 @@
         <v>1113</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2284,13 +2290,13 @@
         <v>1113</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,10 +2364,10 @@
         <v>14365</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -2373,13 +2379,13 @@
         <v>75343</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -2388,13 +2394,13 @@
         <v>89708</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,13 +2415,13 @@
         <v>959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2424,13 +2430,13 @@
         <v>20257</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -2439,13 +2445,13 @@
         <v>21216</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,7 +2507,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2525,7 +2531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32149936-37AB-4EC9-80CD-3E84013B7395}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F936642D-1790-42E1-AAFF-CB66A45F0956}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2542,7 +2548,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2649,7 +2655,7 @@
         <v>1095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
@@ -2664,10 +2670,10 @@
         <v>5234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2679,13 +2685,13 @@
         <v>6329</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,7 +2706,7 @@
         <v>1587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
@@ -2715,13 +2721,13 @@
         <v>2857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2730,13 +2736,13 @@
         <v>4444</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2813,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2819,7 +2825,7 @@
         <v>1989</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
@@ -2834,10 +2840,10 @@
         <v>6137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2861,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2870,7 +2876,7 @@
         <v>2317</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
@@ -2885,13 +2891,13 @@
         <v>2317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,7 +2968,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2974,10 +2980,10 @@
         <v>5774</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -2989,10 +2995,10 @@
         <v>6556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3016,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3025,13 +3031,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3040,13 +3046,13 @@
         <v>902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3123,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3129,10 +3135,10 @@
         <v>13848</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3144,10 +3150,10 @@
         <v>17800</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3171,7 +3177,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3180,13 +3186,13 @@
         <v>924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3195,13 +3201,13 @@
         <v>924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,7 +3278,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3287,7 +3293,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3302,7 +3308,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3326,7 +3332,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3341,7 +3347,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3356,7 +3362,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,7 +3418,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3439,7 +3445,7 @@
         <v>2277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
@@ -3454,10 +3460,10 @@
         <v>5118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3481,7 +3487,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3490,7 +3496,7 @@
         <v>2191</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
@@ -3505,13 +3511,13 @@
         <v>2191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3573,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3594,13 +3600,13 @@
         <v>11322</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -3609,13 +3615,13 @@
         <v>14016</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,7 +3642,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -3645,13 +3651,13 @@
         <v>9850</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3660,13 +3666,13 @@
         <v>9850</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3728,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3737,7 +3743,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -3749,10 +3755,10 @@
         <v>19354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -3764,10 +3770,10 @@
         <v>20377</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3791,7 +3797,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3800,13 +3806,13 @@
         <v>1894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3815,13 +3821,13 @@
         <v>1893</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,10 +3895,10 @@
         <v>17509</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -3904,13 +3910,13 @@
         <v>65940</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
@@ -3919,13 +3925,13 @@
         <v>83449</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3946,13 @@
         <v>1587</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -3955,13 +3961,13 @@
         <v>20934</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -3970,13 +3976,13 @@
         <v>22521</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,7 +4038,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A17-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A17-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5212B80-AEE8-4D04-B54D-6402D68B0705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9839366-562A-4529-9246-BC781CE79460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2559B213-DB34-4346-A9E1-B0D7EB89165E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BE792B5-FBFF-4FE0-87C0-0FED1D3D998C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="190">
   <si>
     <t>Población que recibe medicación o terapia por anemia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -108,13 +108,13 @@
     <t>83,04%</t>
   </si>
   <si>
-    <t>31,57%</t>
+    <t>32,25%</t>
   </si>
   <si>
     <t>87,14%</t>
   </si>
   <si>
-    <t>37,36%</t>
+    <t>39,47%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -123,13 +123,13 @@
     <t>16,96%</t>
   </si>
   <si>
-    <t>68,43%</t>
+    <t>67,75%</t>
   </si>
   <si>
     <t>12,86%</t>
   </si>
   <si>
-    <t>62,64%</t>
+    <t>60,53%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -138,37 +138,37 @@
     <t>68,23%</t>
   </si>
   <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>70,5%</t>
   </si>
   <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>31,77%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>29,5%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -180,19 +180,19 @@
     <t>75,03%</t>
   </si>
   <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
   </si>
   <si>
     <t>80,2%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -201,19 +201,19 @@
     <t>24,97%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>19,8%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -225,13 +225,13 @@
     <t>79,8%</t>
   </si>
   <si>
-    <t>21,53%</t>
+    <t>19,79%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>28,33%</t>
   </si>
   <si>
     <t>48,38%</t>
@@ -240,13 +240,13 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>78,47%</t>
+    <t>80,21%</t>
   </si>
   <si>
     <t>28,32%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>71,67%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -255,37 +255,37 @@
     <t>70,64%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>73,25%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
   </si>
   <si>
     <t>26,75%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -297,13 +297,10 @@
     <t>93,5%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>74,26%</t>
+    <t>74,61%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -312,67 +309,64 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>28,39%</t>
-  </si>
-  <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>25,74%</t>
+    <t>25,39%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>74,33%</t>
+    <t>73,93%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>80,87%</t>
   </si>
   <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>25,67%</t>
+    <t>26,07%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por anemia en 2015 (Tasa respuesta: 1,52%)</t>
+    <t>Población que recibe medicación o terapia por anemia en 2016 (Tasa respuesta: 1,52%)</t>
   </si>
   <si>
     <t>40,83%</t>
@@ -387,10 +381,10 @@
     <t>58,75%</t>
   </si>
   <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>59,17%</t>
@@ -405,10 +399,10 @@
     <t>41,25%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
   </si>
   <si>
     <t>46,19%</t>
@@ -417,7 +411,7 @@
     <t>72,59%</t>
   </si>
   <si>
-    <t>34,05%</t>
+    <t>22,96%</t>
   </si>
   <si>
     <t>53,81%</t>
@@ -426,7 +420,7 @@
     <t>27,41%</t>
   </si>
   <si>
-    <t>65,95%</t>
+    <t>77,04%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -435,13 +429,13 @@
     <t>86,49%</t>
   </si>
   <si>
-    <t>44,35%</t>
+    <t>42,63%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>49,6%</t>
+    <t>47,5%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -450,31 +444,31 @@
     <t>13,51%</t>
   </si>
   <si>
-    <t>55,65%</t>
+    <t>57,37%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
   </si>
   <si>
     <t>95,06%</t>
   </si>
   <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>4,94%</t>
   </si>
   <si>
-    <t>21,63%</t>
+    <t>24,32%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -495,7 +489,7 @@
     <t>70,03%</t>
   </si>
   <si>
-    <t>27,32%</t>
+    <t>26,9%</t>
   </si>
   <si>
     <t>49,03%</t>
@@ -504,115 +498,115 @@
     <t>29,97%</t>
   </si>
   <si>
-    <t>72,68%</t>
+    <t>73,1%</t>
   </si>
   <si>
     <t>53,48%</t>
   </si>
   <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>58,73%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>46,52%</t>
   </si>
   <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
   </si>
   <si>
     <t>41,27%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>72,12%</t>
+    <t>71,83%</t>
   </si>
   <si>
     <t>91,5%</t>
   </si>
   <si>
-    <t>73,93%</t>
+    <t>72,69%</t>
   </si>
   <si>
     <t>8,91%</t>
   </si>
   <si>
-    <t>27,88%</t>
+    <t>28,17%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>26,07%</t>
+    <t>27,31%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>66,28%</t>
+    <t>61,88%</t>
   </si>
   <si>
     <t>75,9%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>78,75%</t>
   </si>
   <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>33,72%</t>
+    <t>38,12%</t>
   </si>
   <si>
     <t>24,1%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
   </si>
   <si>
     <t>21,25%</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726AB5E9-CA93-4C03-A3C6-71272FD423A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ECF4FB-4296-464A-BC48-57BE7B1D1082}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2227,7 +2221,7 @@
         <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -2239,10 +2233,10 @@
         <v>20280</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -2266,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2275,13 +2269,13 @@
         <v>1113</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2290,13 +2284,13 @@
         <v>1113</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,10 +2358,10 @@
         <v>14365</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -2379,13 +2373,13 @@
         <v>75343</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M28" s="7">
         <v>85</v>
@@ -2394,13 +2388,13 @@
         <v>89708</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2409,13 @@
         <v>959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2430,13 +2424,13 @@
         <v>20257</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -2445,13 +2439,13 @@
         <v>21216</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,7 +2501,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F936642D-1790-42E1-AAFF-CB66A45F0956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D45B9ED-CE8D-4A1B-9FA2-E92EB044F719}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2548,7 +2542,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2655,7 +2649,7 @@
         <v>1095</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>17</v>
@@ -2670,10 +2664,10 @@
         <v>5234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -2685,13 +2679,13 @@
         <v>6329</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2700,7 @@
         <v>1587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
@@ -2721,13 +2715,13 @@
         <v>2857</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -2736,13 +2730,13 @@
         <v>4444</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2819,7 @@
         <v>1989</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>17</v>
@@ -2840,10 +2834,10 @@
         <v>6137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2867,7 +2861,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -2876,7 +2870,7 @@
         <v>2317</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>17</v>
@@ -2891,13 +2885,13 @@
         <v>2317</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2980,10 +2974,10 @@
         <v>5774</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -2995,10 +2989,10 @@
         <v>6556</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3022,7 +3016,7 @@
         <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3031,13 +3025,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3046,13 +3040,13 @@
         <v>902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,10 +3129,10 @@
         <v>13848</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3150,10 +3144,10 @@
         <v>17800</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3177,7 +3171,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3186,13 +3180,13 @@
         <v>924</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3201,13 +3195,13 @@
         <v>924</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,7 +3272,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3293,7 +3287,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3308,7 +3302,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3332,7 +3326,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3347,7 +3341,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3362,7 +3356,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,7 +3439,7 @@
         <v>2277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
@@ -3460,10 +3454,10 @@
         <v>5118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3496,7 +3490,7 @@
         <v>2191</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
@@ -3511,13 +3505,13 @@
         <v>2191</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3594,13 @@
         <v>11322</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -3615,13 +3609,13 @@
         <v>14016</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3645,13 @@
         <v>9850</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3666,13 +3660,13 @@
         <v>9850</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,7 +3737,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>16</v>
@@ -3755,10 +3749,10 @@
         <v>19354</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -3770,10 +3764,10 @@
         <v>20377</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3797,7 +3791,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3806,13 +3800,13 @@
         <v>1894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3821,13 +3815,13 @@
         <v>1893</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,10 +3889,10 @@
         <v>17509</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -3910,13 +3904,13 @@
         <v>65940</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>80</v>
@@ -3925,13 +3919,13 @@
         <v>83449</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3940,13 @@
         <v>1587</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -3961,13 +3955,13 @@
         <v>20934</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -3976,13 +3970,13 @@
         <v>22521</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,7 +4032,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
